--- a/DataCompare/ResultWithIndex.xlsx
+++ b/DataCompare/ResultWithIndex.xlsx
@@ -53,7 +53,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -82,12 +82,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0090ee90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
+        <fgColor rgb="00ffff00"/>
       </patternFill>
     </fill>
     <fill>
@@ -188,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -205,11 +200,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -621,12 +615,12 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Source3_GO</t>
+          <t>Source1_GO.xlsx</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Source3_O</t>
+          <t>Source1_O.xlsx</t>
         </is>
       </c>
       <c r="D2" s="8">
